--- a/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,07; 4,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 4,21</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-67,78; 522,29</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,68; 144,29</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 3,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; 130,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,83; 515,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,28; 70,45</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,8%</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 4,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 2,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,13; 535,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,63; 792,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,22%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 2,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 2,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,21; 151,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 342,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,75; 46,95</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-4,59; 2,86</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 3,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 5,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-87,67; 181,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,48; 360,39</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,42%</t>
         </is>
       </c>
     </row>
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-2,66; 3,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 5,1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 3,95</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,78; 829,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,37%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 4,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 1,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 2,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; 326,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,85; 111,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,14; 247,45</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,95%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 1,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 1,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,02; 107,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,5; 491,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,75; 84,01</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 66,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,43; 136,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,54; 30,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>378,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,02; 2108,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>117,56%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,35</t>
+          <t>-2,73; 3,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 342,27</t>
+          <t>-57,44; 229,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,84</t>
+          <t>-2,17; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,85</t>
+          <t>2,34; 10,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 4,21</t>
+          <t>-3,65; 4,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-67,78; 522,29</t>
+          <t>-70,14; 467,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,02; 2108,83</t>
+          <t>3,04; 1874,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 144,29</t>
+          <t>-60,89; 163,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,46</t>
+          <t>-2,69; 2,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,15</t>
+          <t>-0,72; 3,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,65</t>
+          <t>-3,66; 0,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 130,38</t>
+          <t>-55,79; 141,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,83; 515,14</t>
+          <t>-46,56; 692,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,28; 70,45</t>
+          <t>-88,26; 73,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,86</t>
+          <t>-0,8; 4,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,87</t>
+          <t>-0,51; 4,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,54</t>
+          <t>-1,38; 2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,13; 535,0</t>
+          <t>-38,32; 642,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 792,02</t>
+          <t>-47,01; 889,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,5</t>
+          <t>-3,7; 2,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,7</t>
+          <t>-2,68; 3,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,21</t>
+          <t>-5,28; 2,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 151,46</t>
+          <t>-67,48; 188,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,44; 229,57</t>
+          <t>-57,01; 223,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,75; 46,95</t>
+          <t>-60,04; 54,23</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,86</t>
+          <t>-4,51; 2,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,69</t>
+          <t>-2,8; 3,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,29</t>
+          <t>-4,87; 4,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-87,67; 181,72</t>
+          <t>-85,62; 215,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,48; 360,39</t>
+          <t>-77,61; 306,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,57</t>
+          <t>-2,79; 3,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,1</t>
+          <t>-0,82; 4,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,95</t>
+          <t>-0,48; 4,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,63; 491,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 829,1</t>
+          <t>-46,47; 923,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,5</t>
+          <t>-0,27; 4,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,54</t>
+          <t>-1,91; 1,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,9</t>
+          <t>-1,63; 2,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 326,58</t>
+          <t>-15,46; 332,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 111,58</t>
+          <t>-63,55; 115,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 247,45</t>
+          <t>-47,49; 242,65</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,24</t>
+          <t>-2,13; 1,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,5</t>
+          <t>-0,88; 1,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,0</t>
+          <t>-2,04; 0,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 107,0</t>
+          <t>-70,19; 112,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 491,64</t>
+          <t>-66,24; 419,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 84,01</t>
+          <t>-70,8; 86,99</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,44</t>
+          <t>-0,39; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,92</t>
+          <t>0,29; 1,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,71</t>
+          <t>-1,09; 0,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 66,92</t>
+          <t>-12,32; 68,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 136,76</t>
+          <t>11,85; 142,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 30,67</t>
+          <t>-32,83; 27,7</t>
         </is>
       </c>
     </row>
